--- a/BOM.xlsx
+++ b/BOM.xlsx
@@ -5,116 +5,216 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\github\TUSB211\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\James\Documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{EC5A238A-B3AD-42F1-8FB0-023F182B1D2A}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7530" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
-  <si>
-    <t>Male USB connector</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Wurth-Electronics/629004113921/?qs=35zkduByVmhHRkVkRjAlEQ%3d%3d</t>
-  </si>
-  <si>
-    <t>Female USB connector</t>
-  </si>
-  <si>
-    <t>http://www.mouser.com/ProductDetail/Wurth-Electronics/629104190121/?qs=sGAEpiMZZMulM8LPOQ%252byk8LyMHeie57JsP2sn6fSA%252bmXZIFr8CueRw%3d%3d</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="51">
+  <si>
+    <t>Number of boards</t>
+  </si>
+  <si>
+    <t>Subtotal</t>
+  </si>
+  <si>
+    <t>Total Cost</t>
+  </si>
+  <si>
+    <t>Device Description</t>
+  </si>
+  <si>
+    <t>Quantity per board</t>
+  </si>
+  <si>
+    <t>Digikey #</t>
+  </si>
+  <si>
+    <t>Unit Cost ($)</t>
+  </si>
+  <si>
+    <t>Total Part Cost</t>
+  </si>
+  <si>
+    <t>URL to part</t>
+  </si>
+  <si>
+    <t>Extra Information (if applicable)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not from digikey </t>
+  </si>
+  <si>
+    <t>This is a list of materials for the TUSB211 board.  Below you must input a short description of the part, the quantity of each part per board, the Digikey number of the part, the unit cost per part (for the price break), a link to the part on Digikey, and any extra information if it is needed.</t>
+  </si>
+  <si>
+    <t>USB Male SMD</t>
+  </si>
+  <si>
+    <t>710-629004113921</t>
+  </si>
+  <si>
+    <t>https://www.mouser.com/ProductDetail/Wurth-Electronics/629004113921/?qs=35zkduByVmhHRkVkRjAlEQ%3d%3d</t>
+  </si>
+  <si>
+    <t>USB Female SMD</t>
+  </si>
+  <si>
+    <t>710-629104190121</t>
+  </si>
+  <si>
+    <t>710-629104190121Electronics/629004113921/?qs=35zkduByVmhHRkVkRjAlEQ%3d%3d</t>
+  </si>
+  <si>
+    <t>Not from digikey</t>
+  </si>
+  <si>
+    <t>Voltage Regulator</t>
+  </si>
+  <si>
+    <t>AP2127K-3.3TRG1DICT-ND</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/diodes-incorporated/AP2127K-3.3TRG1/AP2127K-3.3TRG1DICT-ND/4505275</t>
   </si>
   <si>
-    <t>Voltage regulator</t>
+    <t>120 ohm resistor</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/stackpole-electronics-inc/RMCF0805JT120R/RMCF0805JT120RCT-ND/1942540</t>
   </si>
   <si>
-    <t xml:space="preserve">120 ohm Resistor  (2)  </t>
-  </si>
-  <si>
-    <t>red LED</t>
+    <t>RMCF0805JT120RCT-ND</t>
+  </si>
+  <si>
+    <t>Red LED</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/vishay-semiconductor-opto-division/TLMS1100-GS08/751-1182-1-ND/1681465</t>
   </si>
   <si>
-    <t>green led</t>
+    <t>751-1182-1-ND</t>
+  </si>
+  <si>
+    <t>Green LED</t>
+  </si>
+  <si>
+    <t>751-1165-1-ND</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/vishay-semiconductor-opto-division/TLMG1100-GS08/751-1165-1-ND/1681448</t>
   </si>
   <si>
-    <t>1 uF cap (2)</t>
-  </si>
-  <si>
-    <t>https://www.digikey.com/product-detail/en/samsung-electro-mechanics/CL10B105KP8NNNC/1276-1946-1-ND/3890032</t>
-  </si>
-  <si>
-    <t>.1 uF cap (3)</t>
+    <t>1276-1946-1-ND</t>
+  </si>
+  <si>
+    <t>.1uF cap</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/yageo/CC0603ZRY5V9BB104/311-1343-1-ND/2103127</t>
   </si>
   <si>
+    <t>311-1343-1-ND</t>
+  </si>
+  <si>
+    <t>1uF cap</t>
+  </si>
+  <si>
     <t>TUSB211</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/texas-instruments/TUSB211IRWBR/296-42307-1-ND/5355427</t>
   </si>
   <si>
+    <t xml:space="preserve"> 296-42307-1-ND</t>
+  </si>
+  <si>
     <t>100 ohm resistor</t>
   </si>
   <si>
+    <t>311-100LRCT-ND</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0402FR-07100RL/311-100LRCT-ND/729474</t>
   </si>
   <si>
     <t>1800 ohm resistor</t>
   </si>
   <si>
+    <t>3900 ohm resistor</t>
+  </si>
+  <si>
+    <t>9100 ohm resistor</t>
+  </si>
+  <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0402JR-071K8L/311-1.8KJRCT-ND/729361</t>
   </si>
   <si>
-    <t>3900 ohm resistor</t>
+    <t>311-1.8KJRCT-ND</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0402JR-073K9L/311-3.9KJRCT-ND/729407</t>
   </si>
   <si>
-    <t>9100 ohm resistor</t>
+    <t>311-3.9KJRCT-ND</t>
   </si>
   <si>
     <t>https://www.digikey.com/product-detail/en/yageo/RC0603JR-079K1L/311-9.1KGRCT-ND/729784</t>
+  </si>
+  <si>
+    <t>311-9.1KGRCT-ND</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="10"/>
+      <color theme="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -125,7 +225,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -133,14 +233,88 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="19">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -452,120 +626,516 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{680822B4-D1E2-487E-BF76-D98DC1ED2A61}">
-  <dimension ref="A1:D25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:K34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="26.5703125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.42578125" customWidth="1"/>
+    <col min="8" max="8" width="15.85546875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A1" s="13" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7"/>
+      <c r="C1" s="7"/>
+      <c r="D1" s="7"/>
+      <c r="H1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" s="1">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="2" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A2" s="7"/>
+      <c r="B2" s="7"/>
+      <c r="C2" s="7"/>
+      <c r="D2" s="7"/>
+      <c r="H2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="I2" s="3">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="H3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D3" t="s">
+      <c r="I3" s="3">
+        <v>9.31</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="6" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A6" s="1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B6" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="D6" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D7" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="F6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D9" t="s">
+      <c r="G6" s="8" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+      <c r="H6" s="9"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="4"/>
+      <c r="K6" s="4"/>
+    </row>
+    <row r="7" spans="1:11" s="6" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="B7" s="4">
+        <v>1</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4">
+        <v>3.07</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3.07</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
+      <c r="I7" s="7"/>
+    </row>
+    <row r="8" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="4">
+        <v>1</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>13</v>
+      </c>
+      <c r="D8">
+        <v>2.21</v>
+      </c>
+      <c r="E8">
+        <f t="shared" ref="E8:E12" si="0">D8 * B8</f>
+        <v>2.21</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="G8" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="D11" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D13" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>14</v>
-      </c>
-      <c r="D15" t="s">
+      <c r="H8" s="7"/>
+      <c r="I8" s="7"/>
+    </row>
+    <row r="9" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
+      <c r="B9" s="4">
+        <v>1</v>
+      </c>
+      <c r="C9" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="D17" t="s">
+      <c r="D9">
+        <v>1.41</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>1.41</v>
+      </c>
+      <c r="F9" s="15" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
+      <c r="G9" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D19" t="s">
+      <c r="H9" s="7"/>
+      <c r="I9" s="7"/>
+    </row>
+    <row r="10" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A10" s="4" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="B10" s="4">
+        <v>1</v>
+      </c>
+      <c r="C10" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D10" s="4">
+        <v>0.48</v>
+      </c>
+      <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.48</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+      <c r="G10" s="11"/>
+      <c r="H10" s="7"/>
+      <c r="I10" s="7"/>
+    </row>
+    <row r="11" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A11" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B11" s="16">
+        <v>1</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11">
+        <v>0.52</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
+      <c r="I11" s="7"/>
+    </row>
+    <row r="12" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B12" s="4">
+        <v>1</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.52</v>
+      </c>
+      <c r="E12">
+        <f t="shared" si="0"/>
+        <v>0.52</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7"/>
+      <c r="H12" s="7"/>
+      <c r="I12" s="7"/>
+    </row>
+    <row r="13" spans="1:11" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A13" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" s="4">
+        <v>2</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E13">
+        <f>B13*D13</f>
+        <v>0.2</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="4">
+        <v>3</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="6">
+        <f>B14*D14</f>
+        <v>0.30000000000000004</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" s="6" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A15" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="D23" t="s">
+      <c r="B15" s="16">
+        <v>2</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" s="6">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="6">
+        <f t="shared" ref="E15" si="1">D15 * B15</f>
+        <v>0.2</v>
+      </c>
+      <c r="F15" s="6" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>24</v>
-      </c>
-      <c r="D25" t="s">
-        <v>25</v>
-      </c>
+      <c r="G15" s="7"/>
+      <c r="H15" s="7"/>
+      <c r="I15" s="7"/>
+    </row>
+    <row r="16" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="4">
+        <v>1</v>
+      </c>
+      <c r="C16" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E16">
+        <v>0.1</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="G16" s="7"/>
+      <c r="H16" s="7"/>
+      <c r="I16" s="7"/>
+    </row>
+    <row r="17" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17" s="4">
+        <v>1</v>
+      </c>
+      <c r="C17" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E17">
+        <v>0.1</v>
+      </c>
+      <c r="F17" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="G17" s="7"/>
+      <c r="H17" s="7"/>
+      <c r="I17" s="7"/>
+    </row>
+    <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18" s="4">
+        <v>1</v>
+      </c>
+      <c r="C18" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E18">
+        <v>0.1</v>
+      </c>
+      <c r="F18" s="18" t="s">
+        <v>47</v>
+      </c>
+      <c r="G18" s="7"/>
+      <c r="H18" s="7"/>
+      <c r="I18" s="7"/>
+    </row>
+    <row r="19" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19" s="4">
+        <v>1</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E19">
+        <v>0.1</v>
+      </c>
+      <c r="F19" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" s="7"/>
+      <c r="H19" s="7"/>
+      <c r="I19" s="7"/>
+    </row>
+    <row r="20" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="7"/>
+    </row>
+    <row r="21" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G21" s="7"/>
+      <c r="H21" s="7"/>
+      <c r="I21" s="7"/>
+    </row>
+    <row r="22" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G22" s="7"/>
+      <c r="H22" s="7"/>
+      <c r="I22" s="7"/>
+    </row>
+    <row r="23" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G23" s="7"/>
+      <c r="H23" s="7"/>
+      <c r="I23" s="7"/>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G24" s="7"/>
+      <c r="H24" s="7"/>
+      <c r="I24" s="7"/>
+    </row>
+    <row r="25" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G25" s="7"/>
+      <c r="H25" s="7"/>
+      <c r="I25" s="7"/>
+    </row>
+    <row r="26" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G26" s="7"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G27" s="7"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G28" s="7"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G29" s="7"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
+    </row>
+    <row r="30" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G30" s="7"/>
+      <c r="H30" s="7"/>
+      <c r="I30" s="7"/>
+    </row>
+    <row r="31" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G31" s="7"/>
+      <c r="H31" s="7"/>
+      <c r="I31" s="7"/>
+    </row>
+    <row r="32" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G32" s="7"/>
+      <c r="H32" s="7"/>
+      <c r="I32" s="7"/>
+    </row>
+    <row r="33" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G33" s="7"/>
+      <c r="H33" s="7"/>
+      <c r="I33" s="7"/>
+    </row>
+    <row r="34" spans="7:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="G34" s="7"/>
+      <c r="H34" s="7"/>
+      <c r="I34" s="7"/>
     </row>
   </sheetData>
+  <mergeCells count="28">
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="A1:D4"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="G12:I12"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="F8" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="F9" r:id="rId2" display="https://www.mouser.com/ProductDetail/Wurth-Electronics/629004113921/?qs=35zkduByVmhHRkVkRjAlEQ%3d%3d" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
+    <hyperlink ref="F10" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
+    <hyperlink ref="F12" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
+    <hyperlink ref="F13" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
+    <hyperlink ref="F14" r:id="rId6" xr:uid="{F43749F9-88DE-4555-A9A4-BA6905E9BDDE}"/>
+    <hyperlink ref="F17" r:id="rId7" xr:uid="{574F4427-FFA7-47FB-B185-A6E0BE24B3EC}"/>
+    <hyperlink ref="F18" r:id="rId8" xr:uid="{AD8A4268-237F-407B-990B-65E01D4363BC}"/>
+    <hyperlink ref="F7" r:id="rId9" xr:uid="{D19318FE-0A43-482D-834D-96CD9FA70854}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId10"/>
 </worksheet>
 </file>